--- a/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/01_项目计划/项目开发计划.xlsx
+++ b/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/01_项目计划/项目开发计划.xlsx
@@ -23,43 +23,43 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_ML1">[3]分类数据!$C$3</definedName>
-    <definedName name="_ML10">[3]分类数据!$C$12</definedName>
-    <definedName name="_ML2">[3]分类数据!$C$4</definedName>
-    <definedName name="_ML3">[3]分类数据!$C$5</definedName>
-    <definedName name="_ML4">[3]分类数据!$C$6</definedName>
-    <definedName name="_ML5">[3]分类数据!$C$7</definedName>
-    <definedName name="_ML6">[3]分类数据!$C$8</definedName>
-    <definedName name="_ML7">[3]分类数据!$C$9</definedName>
-    <definedName name="_ML8">[3]分类数据!$C$10</definedName>
-    <definedName name="_ML9">[3]分类数据!$C$11</definedName>
+    <definedName name="_ML1">[1]分类数据!$C$3</definedName>
+    <definedName name="_ML10">[1]分类数据!$C$12</definedName>
+    <definedName name="_ML2">[1]分类数据!$C$4</definedName>
+    <definedName name="_ML3">[1]分类数据!$C$5</definedName>
+    <definedName name="_ML4">[1]分类数据!$C$6</definedName>
+    <definedName name="_ML5">[1]分类数据!$C$7</definedName>
+    <definedName name="_ML6">[1]分类数据!$C$8</definedName>
+    <definedName name="_ML7">[1]分类数据!$C$9</definedName>
+    <definedName name="_ML8">[1]分类数据!$C$10</definedName>
+    <definedName name="_ML9">[1]分类数据!$C$11</definedName>
     <definedName name="CMRight">#REF!</definedName>
-    <definedName name="e.total">[1]同行评审!$M$8</definedName>
-    <definedName name="effort.ta">[2]引言!#REF!</definedName>
+    <definedName name="e.total">[2]同行评审!$M$8</definedName>
+    <definedName name="effort.ta">[3]引言!#REF!</definedName>
     <definedName name="MeasureKind">#REF!</definedName>
     <definedName name="MilestoneName">#REF!</definedName>
     <definedName name="ModuleName">#REF!</definedName>
     <definedName name="ProductKind">#REF!</definedName>
     <definedName name="ReviewKind">#REF!</definedName>
-    <definedName name="size.ta">[2]引言!#REF!</definedName>
+    <definedName name="size.ta">[3]引言!#REF!</definedName>
     <definedName name="StaffName">#REF!</definedName>
     <definedName name="StatOKNG">#REF!</definedName>
     <definedName name="StatOpenClose">#REF!</definedName>
     <definedName name="StatYesNo">#REF!</definedName>
-    <definedName name="t.all">[1]同行评审!#REF!</definedName>
-    <definedName name="t.at">[1]同行评审!#REF!</definedName>
-    <definedName name="t.dd">[1]同行评审!#REF!</definedName>
-    <definedName name="t.it">[1]同行评审!#REF!</definedName>
-    <definedName name="t.pd">[1]同行评审!#REF!</definedName>
-    <definedName name="t.pr">[1]同行评审!#REF!</definedName>
-    <definedName name="t.ra">[1]同行评审!#REF!</definedName>
-    <definedName name="t.sd">[1]同行评审!#REF!</definedName>
-    <definedName name="t.st1">[1]同行评审!#REF!</definedName>
-    <definedName name="t.st2">[1]同行评审!#REF!</definedName>
-    <definedName name="t.st3">[1]同行评审!#REF!</definedName>
-    <definedName name="t.ut">[1]同行评审!#REF!</definedName>
+    <definedName name="t.all">[2]同行评审!#REF!</definedName>
+    <definedName name="t.at">[2]同行评审!#REF!</definedName>
+    <definedName name="t.dd">[2]同行评审!#REF!</definedName>
+    <definedName name="t.it">[2]同行评审!#REF!</definedName>
+    <definedName name="t.pd">[2]同行评审!#REF!</definedName>
+    <definedName name="t.pr">[2]同行评审!#REF!</definedName>
+    <definedName name="t.ra">[2]同行评审!#REF!</definedName>
+    <definedName name="t.sd">[2]同行评审!#REF!</definedName>
+    <definedName name="t.st1">[2]同行评审!#REF!</definedName>
+    <definedName name="t.st2">[2]同行评审!#REF!</definedName>
+    <definedName name="t.st3">[2]同行评审!#REF!</definedName>
+    <definedName name="t.ut">[2]同行评审!#REF!</definedName>
     <definedName name="Total.type">#REF!</definedName>
-    <definedName name="tp.ra">[1]同行评审!#REF!</definedName>
+    <definedName name="tp.ra">[2]同行评审!#REF!</definedName>
     <definedName name="WORKDAYS">'[4]1.概述'!$H$4</definedName>
     <definedName name="担当">[5]分类数据!$D$3</definedName>
     <definedName name="工作产品">[5]分类数据!$E$3:$E$15</definedName>
@@ -1034,6 +1034,24 @@
     <xf numFmtId="181" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1043,28 +1061,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,29 +1133,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1124,44 +1154,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -13478,6 +13478,47 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
+      <sheetName val="填写及缩略语说明"/>
+      <sheetName val="Cover"/>
+      <sheetName val="Project Status"/>
+      <sheetName val="Requirements Tracking"/>
+      <sheetName val="Size Tracking"/>
+      <sheetName val="Effort Tracking"/>
+      <sheetName val="Schedule Tracking"/>
+      <sheetName val="Quality Tracking"/>
+      <sheetName val="Review Tracking"/>
+      <sheetName val="Test Tracking"/>
+      <sheetName val="Critical Resource Tracking"/>
+      <sheetName val="Risk Tracking"/>
+      <sheetName val="PDB-DEV"/>
+      <sheetName val="分类数据"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="发行控制"/>
       <sheetName val="封面"/>
       <sheetName val="目录"/>
       <sheetName val="基本信息"/>
@@ -13514,7 +13555,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13530,47 +13571,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="发行控制"/>
-      <sheetName val="填写及缩略语说明"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Project Status"/>
-      <sheetName val="Requirements Tracking"/>
-      <sheetName val="Size Tracking"/>
-      <sheetName val="Effort Tracking"/>
-      <sheetName val="Schedule Tracking"/>
-      <sheetName val="Quality Tracking"/>
-      <sheetName val="Review Tracking"/>
-      <sheetName val="Test Tracking"/>
-      <sheetName val="Critical Resource Tracking"/>
-      <sheetName val="Risk Tracking"/>
-      <sheetName val="PDB-DEV"/>
-      <sheetName val="分类数据"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14247,8 +14247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -14263,232 +14263,232 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="42"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="42"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="2:8" ht="126" customHeight="1">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73">
+      <c r="C9" s="33"/>
+      <c r="D9" s="49">
         <v>42555</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="49">
         <v>42573</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:8" ht="33" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="42"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="42"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="5" t="s">
@@ -14586,15 +14586,15 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="9" t="s">
@@ -14609,10 +14609,10 @@
       <c r="E26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="9" t="s">
         <v>42</v>
       </c>
@@ -14764,15 +14764,15 @@
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="9" t="s">
@@ -14832,176 +14832,190 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="62" t="s">
+      <c r="C42" s="72"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="64"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="2:8" ht="30" customHeight="1">
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59" t="s">
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
     </row>
     <row r="44" spans="2:8" ht="25.15" customHeight="1">
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="59" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
     </row>
     <row r="45" spans="2:8" ht="25.15" customHeight="1">
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="59" t="s">
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
     </row>
     <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="49" t="s">
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="51"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="64"/>
     </row>
     <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="35"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="69"/>
     </row>
     <row r="49" spans="2:8" ht="17.100000000000001" customHeight="1">
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="42"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="34"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
     </row>
     <row r="51" spans="2:8" ht="29.25" customHeight="1">
       <c r="B51" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="69"/>
     </row>
     <row r="53" spans="2:8" ht="17.100000000000001" customHeight="1">
       <c r="B53" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="39"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:H48"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
@@ -15012,35 +15026,21 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:H45"/>
     <mergeCell ref="B11:H15"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/01_项目计划/项目开发计划.xlsx
+++ b/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/01_项目计划/项目开发计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimi\Documents\GitHub\BusComing\Doc\BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩\02_项目管理\01_项目计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rccoder\AndroidStudioProjects\BusComing\Doc\BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩\02_项目管理\01_项目计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -195,16 +195,10 @@
     <t>研究需求规约</t>
   </si>
   <si>
-    <t>模块分析与设计</t>
-  </si>
-  <si>
     <t>第二里程碑</t>
   </si>
   <si>
     <t>第三里程碑</t>
-  </si>
-  <si>
-    <t>系统基本完成</t>
   </si>
   <si>
     <t>进度描述</t>
@@ -285,17 +279,10 @@
     <t>日次进度管理</t>
   </si>
   <si>
-    <t>1.每天填写日报
-2.组长根据情况适当开会</t>
-  </si>
-  <si>
     <t>周次进度管理</t>
   </si>
   <si>
     <t>阶段进度管理</t>
-  </si>
-  <si>
-    <t>1.根据每个阶段适当安排会议,解决具体问题</t>
   </si>
   <si>
     <t>项目风险描述</t>
@@ -345,39 +332,7 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>项目总体目标是建设名为BusComing的在线公交站点、路线查询系统。本系统总共包含4个模块，主要是基础信息管理，城市选择，查询，记录/收藏功能。
-其中基础信息管理是用户的登录注册。用户可以在非登录的状态下进行使用，但是无法保存最近查询记录或者收藏。
-选择城市功能可以选择一个城市，该城市是后续查询功能的默认城市，已登录用户所选择的城市会保存。
-查询部分提供指定公交线路查询，起始点-目的地查询，指定站点途经公交车查询。
-对于已登录的用户，要可以保存最近查询记录以及收藏路线。
-本系统应当根据数据提供商，拥有良好的可扩展性。</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向对象</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>java</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android, sqlite</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Android</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Studio 2.2</t>
-    </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -517,6 +472,19 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>7月9日-7月14日</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.每周末开周会，向组内汇报项目一周进展情况
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵吟斌/2016/7/14</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">基础信息模块 ——杨尚斌
 城市选择——杨尚斌
 登录状态——赵吟斌
@@ -529,27 +497,75 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>项目总体目标是建设名为BusComing的在线公交站点、路线查询系统。本系统总共包含4个模块，主要是基础信息管理，城市选择，查询，记录/收藏功能。
+其中基础信息管理是用户的登录注册。用户可以在非登录的状态下进行使用，但是无法保存最近查询记录或者收藏。
+选择城市功能可以选择一个城市，该城市是后续查询功能的默认城市，已登录用户所选择的城市会保存。
+查询部分提供指定公交线路查询，起始点-目的地查询，指定站点途经公交车查询。
+对于已登录的用户，要可以保存最近查询记录以及收藏路线。
+本系统应当根据数据提供商，拥有良好的可扩展性。</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向对象</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android, sqlite</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Studio 2.2</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块分析与设计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统基本完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>7月4日-7月12日</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>7月9日-7月14日</t>
+    <t>1.每天填写日报
+2.组长根据情况适当开会</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.每周末开周会，向组内汇报项目一周进展情况
-</t>
+    <t>1.根据每个阶段适当安排会议,解决具体问题</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>赵吟斌/2016/7/14</t>
+    <t>杨尚斌</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
@@ -1034,24 +1050,6 @@
     <xf numFmtId="181" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1061,14 +1059,80 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1085,29 +1149,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1124,44 +1173,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -13928,7 +13944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A170" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -14247,8 +14263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -14263,232 +14279,232 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
-        <v>75</v>
+      <c r="C4" s="66"/>
+      <c r="D4" s="40" t="s">
+        <v>71</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>77</v>
+      <c r="G4" s="46" t="s">
+        <v>73</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
-        <v>76</v>
+      <c r="C5" s="66"/>
+      <c r="D5" s="40" t="s">
+        <v>72</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>78</v>
+      <c r="G5" s="46" t="s">
+        <v>74</v>
       </c>
-      <c r="H5" s="35"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>79</v>
+      <c r="G7" s="40" t="s">
+        <v>75</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="2:8" ht="126" customHeight="1">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46" t="s">
-        <v>91</v>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62" t="s">
+        <v>86</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="49">
+      <c r="C9" s="66"/>
+      <c r="D9" s="67">
         <v>42555</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="67">
         <v>42573</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="56" t="s">
-        <v>80</v>
+      <c r="B11" s="74" t="s">
+        <v>87</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
     <row r="15" spans="2:8" ht="33" customHeight="1">
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="36" t="s">
-        <v>81</v>
+      <c r="C17" s="45"/>
+      <c r="D17" s="40" t="s">
+        <v>88</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>82</v>
+      <c r="G17" s="52" t="s">
+        <v>76</v>
       </c>
-      <c r="H17" s="35"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="41" t="s">
-        <v>83</v>
+      <c r="C18" s="45"/>
+      <c r="D18" s="52" t="s">
+        <v>89</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>84</v>
+      <c r="G18" s="40" t="s">
+        <v>90</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="5" t="s">
@@ -14530,13 +14546,13 @@
         <v>31</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" ht="31.5" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>42562</v>
@@ -14548,16 +14564,16 @@
         <v>7</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" ht="41.25" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7">
         <v>42569</v>
@@ -14569,10 +14585,10 @@
         <v>5</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -14586,40 +14602,40 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="38" t="s">
-        <v>36</v>
+      <c r="B25" s="32" t="s">
+        <v>34</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="F26" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="G26" s="48"/>
+      <c r="H26" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="11">
         <v>42555</v>
@@ -14629,34 +14645,34 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="2:8" ht="24.75" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="6"/>
@@ -14666,24 +14682,24 @@
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11">
         <v>42563</v>
@@ -14693,17 +14709,17 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="6"/>
@@ -14713,7 +14729,7 @@
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="11">
         <v>42572</v>
@@ -14726,7 +14742,7 @@
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="11">
         <v>42572</v>
@@ -14739,7 +14755,7 @@
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="11">
         <v>42572</v>
@@ -14752,7 +14768,7 @@
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11">
         <v>42573</v>
@@ -14764,48 +14780,48 @@
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="38" t="s">
-        <v>54</v>
+      <c r="B37" s="32" t="s">
+        <v>52</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="G38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="31">
         <v>1</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E39" s="11">
         <v>42504</v>
@@ -14816,13 +14832,13 @@
     </row>
     <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="31">
         <v>1</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E40" s="11">
         <v>42512</v>
@@ -14832,177 +14848,185 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="45"/>
     </row>
-    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="42" t="s">
+    <row r="43" spans="2:8" ht="30" customHeight="1">
+      <c r="B43" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="42" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+    </row>
+    <row r="44" spans="2:8" ht="25.15" customHeight="1">
+      <c r="B44" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="43"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
     </row>
-    <row r="43" spans="2:8" ht="30" customHeight="1">
-      <c r="B43" s="54" t="s">
+    <row r="45" spans="2:8" ht="25.15" customHeight="1">
+      <c r="B45" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+    </row>
+    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
     </row>
-    <row r="44" spans="2:8" ht="25.15" customHeight="1">
-      <c r="B44" s="54" t="s">
+    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-    </row>
-    <row r="45" spans="2:8" ht="25.15" customHeight="1">
-      <c r="B45" s="54" t="s">
+      <c r="C47" s="56"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55" t="s">
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="57"/>
+    </row>
+    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="35"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="2:8" ht="17.100000000000001" customHeight="1">
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
+    </row>
+    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-    </row>
-    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="64"/>
-    </row>
-    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="69"/>
-    </row>
-    <row r="49" spans="2:8" ht="17.100000000000001" customHeight="1">
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="35"/>
-    </row>
-    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
     </row>
     <row r="51" spans="2:8" ht="29.25" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
     </row>
     <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
-      <c r="C52" s="65" t="s">
-        <v>72</v>
+      <c r="C52" s="35" t="s">
+        <v>68</v>
       </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
     </row>
     <row r="53" spans="2:8" ht="17.100000000000001" customHeight="1">
       <c r="B53" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
-      <c r="C53" s="73" t="s">
-        <v>95</v>
+      <c r="C53" s="38" t="s">
+        <v>85</v>
       </c>
-      <c r="D53" s="74"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="35"/>
+      <c r="F53" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="B43:D43"/>
@@ -15016,31 +15040,25 @@
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B41:H41"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:H53"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
